--- a/Data/Ventas Cali 204 -2025.xlsx
+++ b/Data/Ventas Cali 204 -2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SalesReport20242025\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19BE6F1-3A11-4142-BDB6-6D443A035B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67497893-8D29-4E3C-B181-0733CE3F6D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1515" windowWidth="29040" windowHeight="15840" xr2:uid="{2D5B0BE1-147A-44FD-987C-9202F174175E}"/>
   </bookViews>
@@ -5839,9 +5839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5B228E-06A9-44EE-BEAA-ABDBF974F863}">
   <dimension ref="A1:N923"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
